--- a/output2/【河洛話注音】金剛般若波羅蜜經007。無得無說分第七.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經007。無得無說分第七.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7071DC8F-CC79-448E-86C6-5DF0F93ABD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F405D59-989A-4E4C-868D-039A02393A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1324,14 +1324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,14 +1348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1396,14 +1380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1452,14 +1428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1500,14 +1468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1520,10 +1480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mia5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,10 +1536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㄨˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1596,14 +1548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1612,14 +1556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1632,10 +1568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,14 +1580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsha1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㄚ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1665,6 +1589,82 @@
   </si>
   <si>
     <t>ㄅㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆩ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3834,7 +3834,7 @@
         <v>252</v>
       </c>
       <c r="J4" s="87" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="K4" s="87"/>
       <c r="L4" s="87"/>
@@ -3905,7 +3905,7 @@
         <v>253</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="K6" s="92"/>
       <c r="L6" s="92"/>
@@ -3944,42 +3944,42 @@
       <c r="C8" s="52"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="G8" s="87" t="s">
         <v>258</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="J8" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="J8" s="87" t="s">
+      <c r="L8" s="87" t="s">
         <v>264</v>
-      </c>
-      <c r="K8" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="87"/>
       <c r="N8" s="87" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O8" s="87" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="P8" s="87" t="s">
         <v>246</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R8" s="87" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="108"/>
@@ -4044,42 +4044,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="102"/>
       <c r="E10" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="G10" s="102" t="s">
         <v>259</v>
-      </c>
-      <c r="G10" s="102" t="s">
-        <v>261</v>
       </c>
       <c r="H10" s="102"/>
       <c r="I10" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="L10" s="102" t="s">
         <v>265</v>
-      </c>
-      <c r="K10" s="102" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="102" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="102"/>
       <c r="N10" s="102" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O10" s="102" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="P10" s="102" t="s">
         <v>247</v>
       </c>
       <c r="Q10" s="102" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="R10" s="102" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="108"/>
@@ -4109,47 +4109,47 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="105" t="s">
-        <v>284</v>
-      </c>
       <c r="H12" s="105" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I12" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="J12" s="105" t="s">
         <v>258</v>
-      </c>
-      <c r="J12" s="105" t="s">
-        <v>260</v>
       </c>
       <c r="K12" s="105" t="s">
         <v>242</v>
       </c>
       <c r="L12" s="105"/>
       <c r="M12" s="105" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N12" s="105" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="O12" s="105" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="P12" s="105" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="105" t="s">
         <v>248</v>
       </c>
       <c r="R12" s="105" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="108"/>
@@ -4212,47 +4212,47 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="102" t="s">
-        <v>285</v>
-      </c>
       <c r="H14" s="102" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I14" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="J14" s="102" t="s">
         <v>259</v>
-      </c>
-      <c r="J14" s="102" t="s">
-        <v>261</v>
       </c>
       <c r="K14" s="102" t="s">
         <v>243</v>
       </c>
       <c r="L14" s="102"/>
       <c r="M14" s="102" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N14" s="102" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="O14" s="102" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="P14" s="102" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="102" t="s">
         <v>249</v>
       </c>
       <c r="R14" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4287,33 +4287,33 @@
       <c r="E16" s="105"/>
       <c r="F16" s="105"/>
       <c r="G16" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="I16" s="105" t="s">
         <v>258</v>
       </c>
-      <c r="I16" s="105" t="s">
-        <v>260</v>
-      </c>
       <c r="J16" s="105" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
       <c r="M16" s="105" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N16" s="105" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O16" s="105" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P16" s="105" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="105" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="R16" s="105" t="s">
         <v>248</v>
@@ -4384,33 +4384,33 @@
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="I18" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="I18" s="102" t="s">
-        <v>261</v>
-      </c>
       <c r="J18" s="102" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
       <c r="M18" s="102" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N18" s="102" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O18" s="102" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P18" s="102" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="102" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="R18" s="102" t="s">
         <v>249</v>
@@ -4443,45 +4443,45 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="105" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="105" t="s">
         <v>244</v>
       </c>
       <c r="G20" s="105" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="H20" s="105" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I20" s="105" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J20" s="105"/>
       <c r="K20" s="105" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="L20" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="M20" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="N20" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="O20" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="M20" s="105" t="s">
+      <c r="P20" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="N20" s="105" t="s">
+      <c r="Q20" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="O20" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="P20" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q20" s="105" t="s">
-        <v>284</v>
-      </c>
       <c r="R20" s="105" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
@@ -4544,45 +4544,45 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="102" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E22" s="102"/>
       <c r="F22" s="102" t="s">
         <v>245</v>
       </c>
       <c r="G22" s="102" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="I22" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J22" s="102"/>
       <c r="K22" s="102" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L22" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="M22" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="O22" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="M22" s="102" t="s">
+      <c r="P22" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="N22" s="102" t="s">
+      <c r="Q22" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="O22" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="P22" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q22" s="102" t="s">
-        <v>285</v>
-      </c>
       <c r="R22" s="102" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4612,45 +4612,45 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="105" t="s">
         <v>258</v>
-      </c>
-      <c r="E24" s="105" t="s">
-        <v>260</v>
       </c>
       <c r="F24" s="105"/>
       <c r="G24" s="105" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H24" s="105" t="s">
         <v>244</v>
       </c>
       <c r="I24" s="105" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="J24" s="105" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K24" s="105" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L24" s="105" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M24" s="105" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="N24" s="105" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="O24" s="105" t="s">
         <v>248</v>
       </c>
       <c r="P24" s="105"/>
       <c r="Q24" s="105" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R24" s="105" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4713,45 +4713,45 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="102" t="s">
         <v>259</v>
-      </c>
-      <c r="E26" s="102" t="s">
-        <v>261</v>
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="102" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H26" s="102" t="s">
         <v>245</v>
       </c>
       <c r="I26" s="102" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="J26" s="102" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="K26" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L26" s="102" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M26" s="102" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="N26" s="102" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="O26" s="102" t="s">
         <v>249</v>
       </c>
       <c r="P26" s="102"/>
       <c r="Q26" s="102" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="R26" s="102" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4789,43 +4789,43 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="105" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E28" s="105"/>
       <c r="F28" s="105" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G28" s="105" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="H28" s="105" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I28" s="105" t="s">
         <v>248</v>
       </c>
       <c r="J28" s="105" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K28" s="105"/>
       <c r="L28" s="105" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M28" s="105" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="N28" s="105" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="O28" s="105" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="P28" s="105"/>
       <c r="Q28" s="105" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="R28" s="105" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="84" t="str">
@@ -4896,43 +4896,43 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="102" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E30" s="102"/>
       <c r="F30" s="102" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G30" s="102" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="H30" s="102" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I30" s="102" t="s">
         <v>249</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K30" s="102"/>
       <c r="L30" s="102" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M30" s="102" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="N30" s="102" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="O30" s="102" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="P30" s="102"/>
       <c r="Q30" s="102" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="R30" s="102" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="84" t="str">
@@ -4974,37 +4974,37 @@
       </c>
       <c r="E32" s="105"/>
       <c r="F32" s="105" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G32" s="105" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H32" s="105"/>
       <c r="I32" s="105" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J32" s="105" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K32" s="105" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L32" s="105"/>
       <c r="M32" s="105" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N32" s="105" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O32" s="105" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="P32" s="105" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="105"/>
       <c r="R32" s="105" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="84" t="str">
@@ -5075,37 +5075,37 @@
       </c>
       <c r="E34" s="102"/>
       <c r="F34" s="102" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G34" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H34" s="102"/>
       <c r="I34" s="102" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J34" s="102" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K34" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L34" s="102"/>
       <c r="M34" s="102" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N34" s="102" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O34" s="102" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P34" s="102" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q34" s="102"/>
       <c r="R34" s="102" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5135,42 +5135,42 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="105" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E36" s="105" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="105" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I36" s="105" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J36" s="105" t="s">
         <v>244</v>
       </c>
       <c r="K36" s="105" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="L36" s="105" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M36" s="105"/>
       <c r="N36" s="105" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="O36" s="105" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="P36" s="105" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q36" s="105" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="R36" s="105"/>
       <c r="S36" s="53"/>
@@ -5234,42 +5234,42 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="102" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E38" s="102" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F38" s="102" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G38" s="102"/>
       <c r="H38" s="102" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I38" s="102" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J38" s="102" t="s">
         <v>245</v>
       </c>
       <c r="K38" s="102" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="L38" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M38" s="102"/>
       <c r="N38" s="102" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O38" s="102" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="P38" s="102" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Q38" s="102" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="R38" s="102"/>
       <c r="S38" s="58"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經007。無得無說分第七.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經007。無得無說分第七.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F405D59-989A-4E4C-868D-039A02393A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7031EED6-D6E9-4944-ABF3-0CE10691A059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="343">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1195,9 +1195,6 @@
     <t>法</t>
   </si>
   <si>
-    <t>亦</t>
-  </si>
-  <si>
     <t>取</t>
   </si>
   <si>
@@ -1248,423 +1245,443 @@
     <t>耶</t>
   </si>
   <si>
+    <t>定</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>切</t>
+  </si>
+  <si>
+    <t>賢</t>
+  </si>
+  <si>
+    <t>聖</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㄧㄚˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆩ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>可</t>
-  </si>
-  <si>
-    <t>皆</t>
-  </si>
-  <si>
-    <t>切</t>
-  </si>
-  <si>
-    <t>賢</t>
-  </si>
-  <si>
-    <t>聖</t>
-  </si>
-  <si>
-    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>別</t>
-  </si>
-  <si>
-    <t>qia5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄧㄚˊ</t>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>te7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>un5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ju5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sam3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kere2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gi7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiann7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mia5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iah8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚㆷ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kho2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siann3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lai5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hut8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆩ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ciat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆩ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄚㆵ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2232,6 +2249,7 @@
     <font>
       <b/>
       <sz val="48"/>
+      <color rgb="FFFF0000"/>
       <name val="吳守禮細明台語破音01"/>
       <family val="1"/>
       <charset val="136"/>
@@ -3605,7 +3623,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3630,7 +3648,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -3660,10 +3678,10 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="62" t="s">
         <v>220</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3705,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3810,31 +3828,31 @@
       <c r="S3" s="73"/>
       <c r="T3" s="71"/>
       <c r="V3" s="107" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="I4" s="87" t="s">
-        <v>252</v>
-      </c>
       <c r="J4" s="87" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="K4" s="87"/>
       <c r="L4" s="87"/>
@@ -3870,7 +3888,7 @@
         <v>169</v>
       </c>
       <c r="J5" s="93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K5" s="93"/>
       <c r="L5" s="93"/>
@@ -3887,25 +3905,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="92" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="G6" s="92" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H6" s="92" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="K6" s="92"/>
       <c r="L6" s="92"/>
@@ -3944,42 +3962,42 @@
       <c r="C8" s="52"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="J8" s="87" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L8" s="87" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="M8" s="87"/>
       <c r="N8" s="87" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O8" s="87" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="P8" s="87" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="87" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="R8" s="87" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="108"/>
@@ -4009,10 +4027,10 @@
         <v>195</v>
       </c>
       <c r="J9" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" s="101" t="s">
         <v>224</v>
-      </c>
-      <c r="K9" s="101" t="s">
-        <v>225</v>
       </c>
       <c r="L9" s="101" t="s">
         <v>188</v>
@@ -4030,10 +4048,10 @@
         <v>200</v>
       </c>
       <c r="Q9" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" s="101" t="s">
         <v>226</v>
-      </c>
-      <c r="R9" s="101" t="s">
-        <v>227</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
@@ -4044,42 +4062,42 @@
       <c r="C10" s="52"/>
       <c r="D10" s="102"/>
       <c r="E10" s="102" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G10" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H10" s="102"/>
       <c r="I10" s="102" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="K10" s="102" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L10" s="102" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="M10" s="102"/>
       <c r="N10" s="102" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="O10" s="102" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="P10" s="102" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="102" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="R10" s="102" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="108"/>
@@ -4109,47 +4127,47 @@
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="105" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="H12" s="105" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I12" s="105" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J12" s="105" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K12" s="105" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="L12" s="105"/>
       <c r="M12" s="105" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N12" s="105" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="O12" s="105" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="P12" s="105" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="105" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="R12" s="105" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="108"/>
@@ -4161,16 +4179,16 @@
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="101" t="s">
         <v>228</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>229</v>
       </c>
       <c r="F13" s="101" t="s">
         <v>210</v>
       </c>
       <c r="G13" s="101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H13" s="101" t="s">
         <v>210</v>
@@ -4182,7 +4200,7 @@
         <v>185</v>
       </c>
       <c r="K13" s="100" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="L13" s="101" t="s">
         <v>189</v>
@@ -4212,47 +4230,47 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="102" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="G14" s="102" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J14" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="K14" s="102" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="L14" s="102"/>
       <c r="M14" s="102" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="N14" s="102" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="O14" s="102" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="P14" s="102" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="102" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="R14" s="102" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="69"/>
@@ -4282,41 +4300,41 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="105" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="E16" s="105"/>
       <c r="F16" s="105"/>
       <c r="G16" s="105" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H16" s="105" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I16" s="105" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J16" s="105" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
       <c r="M16" s="105" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N16" s="105" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="O16" s="105" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="P16" s="105" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="105" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="R16" s="105" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4328,7 +4346,7 @@
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="101" t="s">
         <v>189</v>
@@ -4361,13 +4379,13 @@
         <v>214</v>
       </c>
       <c r="O17" s="106" t="s">
-        <v>232</v>
+        <v>328</v>
       </c>
       <c r="P17" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="Q17" s="101" t="s">
-        <v>191</v>
+      <c r="Q17" s="100" t="s">
+        <v>329</v>
       </c>
       <c r="R17" s="101" t="s">
         <v>201</v>
@@ -4379,41 +4397,41 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="102" t="s">
-        <v>243</v>
+        <v>334</v>
       </c>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="H18" s="102" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J18" s="102" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
       <c r="M18" s="102" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="N18" s="102" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="O18" s="102" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="P18" s="102" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="102" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="R18" s="102" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4443,45 +4461,45 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="105" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="105" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="G20" s="105" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="H20" s="105" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="I20" s="105" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="J20" s="105"/>
       <c r="K20" s="105" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L20" s="105" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M20" s="105" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="N20" s="105" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="O20" s="105" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="P20" s="105" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="105" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="R20" s="105" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="69"/>
@@ -4493,7 +4511,7 @@
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="101" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" s="101" t="s">
         <v>167</v>
@@ -4505,7 +4523,7 @@
         <v>204</v>
       </c>
       <c r="H21" s="100" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="I21" s="101" t="s">
         <v>215</v>
@@ -4514,25 +4532,25 @@
         <v>167</v>
       </c>
       <c r="K21" s="101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L21" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="M21" s="101" t="s">
+      <c r="N21" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="N21" s="101" t="s">
+      <c r="O21" s="101" t="s">
         <v>228</v>
-      </c>
-      <c r="O21" s="101" t="s">
-        <v>229</v>
       </c>
       <c r="P21" s="101" t="s">
         <v>210</v>
       </c>
       <c r="Q21" s="101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="R21" s="101" t="s">
         <v>210</v>
@@ -4544,45 +4562,45 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="102" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="E22" s="102"/>
       <c r="F22" s="102" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="G22" s="102" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I22" s="102" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="J22" s="102"/>
       <c r="K22" s="102" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="L22" s="102" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="M22" s="102" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="N22" s="102" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="O22" s="102" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="P22" s="102" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="102" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="R22" s="102" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4612,45 +4630,45 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="105" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E24" s="105" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F24" s="105"/>
       <c r="G24" s="105" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="H24" s="105" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="I24" s="105" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="J24" s="105" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="K24" s="105" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="L24" s="105" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="M24" s="105" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="N24" s="105" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="O24" s="105" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P24" s="105"/>
       <c r="Q24" s="105" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="R24" s="105" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4670,8 +4688,8 @@
       <c r="F25" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="101" t="s">
-        <v>216</v>
+      <c r="G25" s="100" t="s">
+        <v>331</v>
       </c>
       <c r="H25" s="101" t="s">
         <v>212</v>
@@ -4680,7 +4698,7 @@
         <v>204</v>
       </c>
       <c r="J25" s="100" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K25" s="101" t="s">
         <v>215</v>
@@ -4692,7 +4710,7 @@
         <v>199</v>
       </c>
       <c r="N25" s="101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O25" s="101" t="s">
         <v>201</v>
@@ -4713,45 +4731,45 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="102" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E26" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="102" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="I26" s="102" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="J26" s="102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K26" s="102" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="L26" s="102" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="M26" s="102" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="N26" s="102" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="O26" s="102" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P26" s="102"/>
       <c r="Q26" s="102" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="R26" s="102" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4789,43 +4807,43 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="105" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="E28" s="105"/>
       <c r="F28" s="105" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G28" s="105" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="H28" s="105" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="I28" s="105" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J28" s="105" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" s="105"/>
       <c r="L28" s="105" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="M28" s="105" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="N28" s="105" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="O28" s="105" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="P28" s="105"/>
       <c r="Q28" s="105" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="R28" s="105" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="84" t="str">
@@ -4865,16 +4883,16 @@
         <v>167</v>
       </c>
       <c r="L29" s="101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M29" s="101" t="s">
         <v>196</v>
       </c>
       <c r="N29" s="101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O29" s="101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P29" s="101" t="s">
         <v>209</v>
@@ -4883,7 +4901,7 @@
         <v>196</v>
       </c>
       <c r="R29" s="101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S29" s="54"/>
       <c r="U29" s="84" t="str">
@@ -4896,43 +4914,43 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="102" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E30" s="102"/>
       <c r="F30" s="102" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G30" s="102" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="H30" s="102" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="I30" s="102" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="K30" s="102"/>
       <c r="L30" s="102" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="M30" s="102" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="N30" s="102" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="O30" s="102" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="P30" s="102"/>
       <c r="Q30" s="102" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="R30" s="102" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="84" t="str">
@@ -4970,41 +4988,41 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="105" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E32" s="105"/>
       <c r="F32" s="105" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="G32" s="105" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H32" s="105"/>
       <c r="I32" s="105" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="J32" s="105" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="K32" s="105" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="L32" s="105"/>
       <c r="M32" s="105" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="N32" s="105" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="O32" s="105" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="P32" s="105" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="Q32" s="105"/>
       <c r="R32" s="105" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="84" t="str">
@@ -5071,41 +5089,41 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="102" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E34" s="102"/>
       <c r="F34" s="102" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G34" s="102" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H34" s="102"/>
       <c r="I34" s="102" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="J34" s="102" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="K34" s="102" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="L34" s="102"/>
       <c r="M34" s="102" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="N34" s="102" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="O34" s="102" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="P34" s="102" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="Q34" s="102"/>
       <c r="R34" s="102" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5135,42 +5153,42 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="105" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="E36" s="105" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="105" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="I36" s="105" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="J36" s="105" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="K36" s="105" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="L36" s="105" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M36" s="105"/>
       <c r="N36" s="105" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="O36" s="105" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="P36" s="105" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="Q36" s="105" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="R36" s="105"/>
       <c r="S36" s="53"/>
@@ -5183,19 +5201,19 @@
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="101" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="F37" s="101" t="s">
         <v>237</v>
-      </c>
-      <c r="E37" s="101" t="s">
-        <v>238</v>
-      </c>
-      <c r="F37" s="101" t="s">
-        <v>239</v>
       </c>
       <c r="G37" s="101" t="s">
         <v>167</v>
       </c>
       <c r="H37" s="101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I37" s="101" t="s">
         <v>193</v>
@@ -5219,10 +5237,10 @@
         <v>204</v>
       </c>
       <c r="P37" s="101" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q37" s="101" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="Q37" s="100" t="s">
+        <v>332</v>
       </c>
       <c r="R37" s="101" t="s">
         <v>172</v>
@@ -5234,42 +5252,42 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="102" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="E38" s="102" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="F38" s="102" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G38" s="102"/>
       <c r="H38" s="102" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="I38" s="102" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="J38" s="102" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="K38" s="102" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="L38" s="102" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="M38" s="102"/>
       <c r="N38" s="102" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="O38" s="102" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="P38" s="102" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q38" s="102" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="R38" s="102"/>
       <c r="S38" s="58"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經007。無得無說分第七.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經007。無得無說分第七.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7031EED6-D6E9-4944-ABF3-0CE10691A059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF20C70-FFB2-4B97-8818-FF85D5D2A340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1401,14 +1401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mia5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄇㄧㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kho2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1525,14 +1517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ciat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆢㄧˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1682,6 +1666,22 @@
   </si>
   <si>
     <t>ㄅㄧㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ce3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆤ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3723,9 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -3834,13 +3832,13 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="87" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E4" s="87" t="s">
         <v>239</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G4" s="87" t="s">
         <v>241</v>
@@ -3852,7 +3850,7 @@
         <v>244</v>
       </c>
       <c r="J4" s="87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K4" s="87"/>
       <c r="L4" s="87"/>
@@ -3905,25 +3903,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="92" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E6" s="92" t="s">
         <v>240</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G6" s="92" t="s">
         <v>242</v>
       </c>
       <c r="H6" s="92" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I6" s="92" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K6" s="92"/>
       <c r="L6" s="92"/>
@@ -3972,7 +3970,7 @@
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J8" s="87" t="s">
         <v>250</v>
@@ -3981,14 +3979,14 @@
         <v>251</v>
       </c>
       <c r="L8" s="87" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M8" s="87"/>
       <c r="N8" s="87" t="s">
         <v>253</v>
       </c>
       <c r="O8" s="87" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P8" s="87" t="s">
         <v>239</v>
@@ -4062,7 +4060,7 @@
       <c r="C10" s="52"/>
       <c r="D10" s="102"/>
       <c r="E10" s="102" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F10" s="102" t="s">
         <v>247</v>
@@ -4072,32 +4070,32 @@
       </c>
       <c r="H10" s="102"/>
       <c r="I10" s="102" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J10" s="102" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K10" s="102" t="s">
         <v>252</v>
       </c>
       <c r="L10" s="102" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M10" s="102"/>
       <c r="N10" s="102" t="s">
         <v>254</v>
       </c>
       <c r="O10" s="102" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P10" s="102" t="s">
         <v>240</v>
       </c>
       <c r="Q10" s="102" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="R10" s="102" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="108"/>
@@ -4148,17 +4146,17 @@
         <v>248</v>
       </c>
       <c r="K12" s="105" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L12" s="105"/>
       <c r="M12" s="105" t="s">
         <v>253</v>
       </c>
       <c r="N12" s="105" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="105" t="s">
         <v>294</v>
-      </c>
-      <c r="O12" s="105" t="s">
-        <v>296</v>
       </c>
       <c r="P12" s="105" t="s">
         <v>263</v>
@@ -4200,7 +4198,7 @@
         <v>185</v>
       </c>
       <c r="K13" s="100" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L13" s="101" t="s">
         <v>189</v>
@@ -4230,19 +4228,19 @@
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E14" s="102" t="s">
         <v>259</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G14" s="102" t="s">
         <v>262</v>
       </c>
       <c r="H14" s="102" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I14" s="102" t="s">
         <v>247</v>
@@ -4251,17 +4249,17 @@
         <v>249</v>
       </c>
       <c r="K14" s="102" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L14" s="102"/>
       <c r="M14" s="102" t="s">
         <v>254</v>
       </c>
       <c r="N14" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="O14" s="102" t="s">
         <v>295</v>
-      </c>
-      <c r="O14" s="102" t="s">
-        <v>297</v>
       </c>
       <c r="P14" s="102" t="s">
         <v>264</v>
@@ -4300,7 +4298,7 @@
       <c r="B16" s="65"/>
       <c r="C16" s="52"/>
       <c r="D16" s="105" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E16" s="105"/>
       <c r="F16" s="105"/>
@@ -4325,10 +4323,10 @@
         <v>269</v>
       </c>
       <c r="O16" s="105" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P16" s="105" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="105" t="s">
         <v>263</v>
@@ -4379,13 +4377,13 @@
         <v>214</v>
       </c>
       <c r="O17" s="106" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P17" s="101" t="s">
         <v>203</v>
       </c>
       <c r="Q17" s="100" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="R17" s="101" t="s">
         <v>201</v>
@@ -4397,12 +4395,12 @@
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
       <c r="D18" s="102" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E18" s="102"/>
       <c r="F18" s="102"/>
       <c r="G18" s="102" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H18" s="102" t="s">
         <v>247</v>
@@ -4422,10 +4420,10 @@
         <v>270</v>
       </c>
       <c r="O18" s="102" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P18" s="102" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="102" t="s">
         <v>264</v>
@@ -4465,20 +4463,20 @@
       </c>
       <c r="E20" s="105"/>
       <c r="F20" s="105" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G20" s="105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20" s="105" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I20" s="105" t="s">
         <v>265</v>
       </c>
       <c r="J20" s="105"/>
       <c r="K20" s="105" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="L20" s="105" t="s">
         <v>255</v>
@@ -4523,7 +4521,7 @@
         <v>204</v>
       </c>
       <c r="H21" s="100" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I21" s="101" t="s">
         <v>215</v>
@@ -4562,45 +4560,45 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="102" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E22" s="102"/>
       <c r="F22" s="102" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G22" s="102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I22" s="102" t="s">
         <v>266</v>
       </c>
       <c r="J22" s="102"/>
       <c r="K22" s="102" t="s">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="L22" s="102" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M22" s="102" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N22" s="102" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O22" s="102" t="s">
         <v>259</v>
       </c>
       <c r="P22" s="102" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="102" t="s">
         <v>262</v>
       </c>
       <c r="R22" s="102" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="69"/>
@@ -4637,16 +4635,16 @@
       </c>
       <c r="F24" s="105"/>
       <c r="G24" s="105" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H24" s="105" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I24" s="105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J24" s="105" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K24" s="105" t="s">
         <v>265</v>
@@ -4655,20 +4653,20 @@
         <v>253</v>
       </c>
       <c r="M24" s="105" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N24" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O24" s="105" t="s">
         <v>241</v>
       </c>
       <c r="P24" s="105"/>
       <c r="Q24" s="105" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="R24" s="105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="69"/>
@@ -4689,7 +4687,7 @@
         <v>213</v>
       </c>
       <c r="G25" s="100" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H25" s="101" t="s">
         <v>212</v>
@@ -4738,16 +4736,16 @@
       </c>
       <c r="F26" s="102"/>
       <c r="G26" s="102" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I26" s="102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J26" s="102" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K26" s="102" t="s">
         <v>266</v>
@@ -4756,20 +4754,20 @@
         <v>254</v>
       </c>
       <c r="M26" s="102" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N26" s="102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O26" s="102" t="s">
         <v>242</v>
       </c>
       <c r="P26" s="102"/>
       <c r="Q26" s="102" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="R26" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S26" s="58"/>
       <c r="U26" s="1" t="str">
@@ -4807,14 +4805,14 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="105" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E28" s="105"/>
       <c r="F28" s="105" t="s">
         <v>253</v>
       </c>
       <c r="G28" s="105" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H28" s="105" t="s">
         <v>263</v>
@@ -4827,23 +4825,23 @@
       </c>
       <c r="K28" s="105"/>
       <c r="L28" s="105" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M28" s="105" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N28" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O28" s="105" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P28" s="105"/>
       <c r="Q28" s="105" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="R28" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="84" t="str">
@@ -4914,14 +4912,14 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="102" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E30" s="102"/>
       <c r="F30" s="102" t="s">
         <v>254</v>
       </c>
       <c r="G30" s="102" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H30" s="102" t="s">
         <v>264</v>
@@ -4934,23 +4932,23 @@
       </c>
       <c r="K30" s="102"/>
       <c r="L30" s="102" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M30" s="102" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N30" s="102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O30" s="102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P30" s="102"/>
       <c r="Q30" s="102" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="R30" s="102" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="84" t="str">
@@ -4992,17 +4990,17 @@
       </c>
       <c r="E32" s="105"/>
       <c r="F32" s="105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G32" s="105" t="s">
         <v>265</v>
       </c>
       <c r="H32" s="105"/>
       <c r="I32" s="105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J32" s="105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K32" s="105" t="s">
         <v>265</v>
@@ -5012,17 +5010,17 @@
         <v>263</v>
       </c>
       <c r="N32" s="105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O32" s="105" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P32" s="105" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q32" s="105"/>
       <c r="R32" s="105" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="84" t="str">
@@ -5093,17 +5091,17 @@
       </c>
       <c r="E34" s="102"/>
       <c r="F34" s="102" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G34" s="102" t="s">
         <v>266</v>
       </c>
       <c r="H34" s="102"/>
       <c r="I34" s="102" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J34" s="102" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K34" s="102" t="s">
         <v>266</v>
@@ -5113,17 +5111,17 @@
         <v>264</v>
       </c>
       <c r="N34" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O34" s="102" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P34" s="102" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q34" s="102"/>
       <c r="R34" s="102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5153,42 +5151,42 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="105" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="E36" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="F36" s="105" t="s">
         <v>284</v>
-      </c>
-      <c r="F36" s="105" t="s">
-        <v>286</v>
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="105" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I36" s="105" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J36" s="105" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K36" s="105" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L36" s="105" t="s">
         <v>265</v>
       </c>
       <c r="M36" s="105"/>
       <c r="N36" s="105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O36" s="105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P36" s="105" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q36" s="105" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="R36" s="105"/>
       <c r="S36" s="53"/>
@@ -5240,7 +5238,7 @@
         <v>238</v>
       </c>
       <c r="Q37" s="100" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="R37" s="101" t="s">
         <v>172</v>
@@ -5252,42 +5250,42 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="102" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="E38" s="102" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F38" s="102" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G38" s="102"/>
       <c r="H38" s="102" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I38" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J38" s="102" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K38" s="102" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L38" s="102" t="s">
         <v>266</v>
       </c>
       <c r="M38" s="102"/>
       <c r="N38" s="102" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O38" s="102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P38" s="102" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q38" s="102" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="R38" s="102"/>
       <c r="S38" s="58"/>
